--- a/LeetCodeProgressDocumentation.xlsx
+++ b/LeetCodeProgressDocumentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\IdeaProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C5A6192-E965-438B-A1E0-B89F82F0037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3318F6AE-DDA1-4486-92B7-495946D8FE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="1455" windowWidth="15495" windowHeight="11295" xr2:uid="{174181C3-D675-4917-A945-A4385F19B9AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{174181C3-D675-4917-A945-A4385F19B9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>217. Contains Duplicate</t>
   </si>
@@ -199,6 +199,64 @@
         <scheme val="minor"/>
       </rPr>
       <t>Create a helper method wherein it converts characters I,V,X,L,C,D,M to 1,5,10,50,100,500,1000. Iterate through the array from length()-1 to index 0 and check if the current value is greater than or less than the previous value. Add if it is the former and subtract if its the latter.</t>
+    </r>
+  </si>
+  <si>
+    <t>Array (String)</t>
+  </si>
+  <si>
+    <t>(TestGorilla) Remove Vowel</t>
+  </si>
+  <si>
+    <t>Array(String)</t>
+  </si>
+  <si>
+    <t>(TestGorilla) SumExcludingIndex</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>METHOD 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Go through the entire string and check if each character is a vowel using a helper method called isVowel. If it is not a vowel, add character to a new String and return string.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">METHOD 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use two loops. Outer loop to determine which index to put the output, Inner loop determines the integers to add. Cross reference index I and j so that it does not add to itself. If  i!=j add sum to current index in new int array</t>
     </r>
   </si>
 </sst>
@@ -308,15 +366,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -324,6 +373,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,72 +698,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3013F57-5D80-4437-8E52-09EEC14F757F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="103.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="103.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
